--- a/data/qualitative.xlsx
+++ b/data/qualitative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/UO/Terms/Winter 2019/R/viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/SKY@UO/SKY-UO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A22885-7C84-4B4A-9A04-84E9F4D08EAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404B85A5-ABD4-3646-9FA4-241207ED7A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31000" yWindow="3100" windowWidth="27640" windowHeight="14900" xr2:uid="{CAB11C9C-A994-9B4B-B078-AE562B113707}"/>
+    <workbookView xWindow="33660" yWindow="4720" windowWidth="22460" windowHeight="13280" xr2:uid="{CAB11C9C-A994-9B4B-B078-AE562B113707}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Experience</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>This is such a valuable experience!</t>
+  </si>
+  <si>
+    <t>Calming effect, immediate change in how to deal with my life. Exciting to learn everything. Opening</t>
+  </si>
+  <si>
+    <t>Definitely go. It gives you an immediate way to manage life. It was an awesome experience, either revisiting or learning the concepts about how to be is benefitial</t>
+  </si>
+  <si>
+    <t>It was my first time attending SKY Happiness Retreat. I felt great, new and satisfied after this progress. Sara and Ting-fen shared their wisdom of how to live a happier and more peaceful life and how to attain a joyful state of mind. I am grateful for what I've learned from them.</t>
+  </si>
+  <si>
+    <t>SKY Happiness Retreat makes me think about my current life, my state of mind, my relationship with others, the world, and the universe. It's not only about yoga or meditation. It's about seeking a better way to experience our existence. Check it out.</t>
   </si>
 </sst>
 </file>
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB051DF-BDB7-0D42-97A5-1B0517A26B73}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -701,6 +713,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="23" spans="1:2" ht="187">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="306">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
